--- a/src/assets/ParkNRide_Facilities.xlsx
+++ b/src/assets/ParkNRide_Facilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chewc\Documents\public-transport-website\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FF158C-9AA2-43F7-8A87-A6E17AD47638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E58B08C-2D19-40C4-8C38-2D6D42AB9AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11310" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{05A816A0-9E3B-4A0F-B964-BA20B6844A6E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{05A816A0-9E3B-4A0F-B964-BA20B6844A6E}"/>
   </bookViews>
   <sheets>
     <sheet name="ParknRide" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="76">
   <si>
     <t>Putra Height</t>
   </si>
@@ -253,12 +253,6 @@
   </si>
   <si>
     <t>Sungai Buloh</t>
-  </si>
-  <si>
-    <t>CarParkingFares</t>
-  </si>
-  <si>
-    <t>MotorcycleParkingFares</t>
   </si>
 </sst>
 </file>
@@ -630,18 +624,18 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.81640625" customWidth="1"/>
+    <col min="8" max="8" width="22.1796875" customWidth="1"/>
+    <col min="9" max="9" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -663,14 +657,10 @@
       <c r="G1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -693,7 +683,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -716,7 +706,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -739,7 +729,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -762,7 +752,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -785,7 +775,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -808,7 +798,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -831,7 +821,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -854,7 +844,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -877,7 +867,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -900,7 +890,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -923,7 +913,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -946,7 +936,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -969,7 +959,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -992,7 +982,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1015,7 +1005,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1038,7 +1028,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1061,7 +1051,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1084,7 +1074,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1107,7 +1097,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1130,7 +1120,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1153,7 +1143,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1176,7 +1166,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1199,7 +1189,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1222,7 +1212,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1245,7 +1235,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1268,7 +1258,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1291,7 +1281,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1314,7 +1304,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1337,7 +1327,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1360,7 +1350,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1383,7 +1373,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1406,7 +1396,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1429,7 +1419,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1452,7 +1442,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1475,7 +1465,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1498,7 +1488,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1521,7 +1511,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1544,7 +1534,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1567,7 +1557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1590,7 +1580,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1613,7 +1603,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1636,7 +1626,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1659,7 +1649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1682,7 +1672,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1705,7 +1695,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1728,7 +1718,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1751,7 +1741,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1774,7 +1764,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1797,7 +1787,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1820,7 +1810,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1843,7 +1833,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1866,7 +1856,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1889,7 +1879,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1912,7 +1902,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1935,7 +1925,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1958,7 +1948,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1981,7 +1971,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2004,7 +1994,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2027,7 +2017,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2050,7 +2040,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2073,7 +2063,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
